--- a/CostType.xlsx
+++ b/CostType.xlsx
@@ -20,22 +20,16 @@
     <t>Location</t>
   </si>
   <si>
+    <t>Domestic:</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
-    <t>brand</t>
+    <t>Caffeinated</t>
   </si>
   <si>
-    <t>Actual</t>
-  </si>
-  <si>
-    <t>Budget</t>
-  </si>
-  <si>
-    <t>Domestic:</t>
-  </si>
-  <si>
-    <t>Caffeinated</t>
+    <t>brand</t>
   </si>
   <si>
     <t>House Blend</t>
@@ -58,17 +52,22 @@
   <si>
     <t>Espresso</t>
   </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="&quot; &quot;&quot;$&quot;* #,##0&quot; &quot;;&quot; &quot;&quot;$&quot;* (#,##0);&quot; &quot;&quot;$&quot;* &quot;- &quot;"/>
-    <numFmt numFmtId="60" formatCode="&quot; &quot;* #,##0&quot; &quot;;&quot; &quot;* (#,##0);&quot; &quot;* &quot;- &quot;"/>
+    <numFmt numFmtId="59" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -85,19 +84,8 @@
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,14 +104,8 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -151,21 +133,6 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
@@ -211,36 +178,6 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
@@ -275,21 +212,6 @@
       </right>
       <top style="thin">
         <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -302,72 +224,51 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="59" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="59" fontId="3" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="3" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="3" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="3" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -390,7 +291,6 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1484,22 +1384,35 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G23"/>
+  <dimension ref="A2:V8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.35156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.35156" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.35156" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.35156" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.35156" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.35156" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.35156" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.35156" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.35156" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.35156" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.35156" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.35156" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.35156" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.35156" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.35156" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.35156" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.35156" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.35156" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.35156" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.35156" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.35156" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.35156" style="1" customWidth="1"/>
+    <col min="23" max="256" width="8.35156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1">
@@ -1512,290 +1425,275 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
     </row>
-    <row r="2" ht="20.65" customHeight="1">
+    <row r="2" ht="20.55" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
     </row>
-    <row r="3" ht="21" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" t="s" s="6">
+    <row r="3" ht="20.55" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="D3" t="s" s="8">
+      <c r="D3" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+    </row>
+    <row r="4" ht="20.35" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" t="s" s="9">
         <v>3</v>
       </c>
-      <c r="E3" t="s" s="9">
+      <c r="C4" t="s" s="10">
         <v>4</v>
       </c>
-      <c r="F3" t="s" s="9">
-        <v>5</v>
-      </c>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" ht="20.65" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s" s="13">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s" s="13">
-        <v>8</v>
-      </c>
-      <c r="E4" s="14">
-        <v>55200</v>
-      </c>
-      <c r="F4" s="14">
-        <v>55000</v>
-      </c>
-      <c r="G4" s="14"/>
+      <c r="D4" t="s" s="10">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s" s="10">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s" s="10">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s" s="10">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s" s="10">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s" s="10">
+        <v>4</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
     </row>
     <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" t="s" s="12">
+      <c r="A5" s="8"/>
+      <c r="B5" t="s" s="9">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s" s="10">
         <v>6</v>
       </c>
-      <c r="C5" t="s" s="13">
+      <c r="D5" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D5" t="s" s="13">
+      <c r="E5" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s" s="10">
         <v>9</v>
       </c>
-      <c r="E5" s="15">
-        <v>46400</v>
-      </c>
-      <c r="F5" s="15">
-        <v>45000</v>
-      </c>
-      <c r="G5" s="15"/>
+      <c r="G5" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s" s="13">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="E6" s="15">
+      <c r="A6" s="8"/>
+      <c r="B6" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="C6" s="12">
+        <v>55200</v>
+      </c>
+      <c r="D6" s="13">
+        <v>46400</v>
+      </c>
+      <c r="E6" s="13">
         <v>35200</v>
       </c>
-      <c r="F6" s="15">
-        <v>35000</v>
-      </c>
-      <c r="G6" s="15"/>
+      <c r="F6" s="13">
+        <v>28700</v>
+      </c>
+      <c r="G6" s="13">
+        <v>22100</v>
+      </c>
+      <c r="H6" s="13">
+        <v>19900</v>
+      </c>
+      <c r="I6" s="13">
+        <v>16800</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s" s="13">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="E7" s="15">
-        <v>28700</v>
-      </c>
-      <c r="F7" s="15">
+      <c r="A7" s="8"/>
+      <c r="B7" t="s" s="9">
+        <v>14</v>
+      </c>
+      <c r="C7" s="12">
+        <v>55000</v>
+      </c>
+      <c r="D7" s="13">
+        <v>45000</v>
+      </c>
+      <c r="E7" s="13">
+        <v>35000</v>
+      </c>
+      <c r="F7" s="13">
         <v>25000</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="13">
+        <v>25000</v>
+      </c>
+      <c r="H7" s="13">
+        <v>20000</v>
+      </c>
+      <c r="I7" s="13">
+        <v>17500</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s" s="13">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="E8" s="15">
-        <v>22100</v>
-      </c>
-      <c r="F8" s="15">
-        <v>25000</v>
-      </c>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s" s="13">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s" s="13">
-        <v>13</v>
-      </c>
-      <c r="E9" s="15">
-        <v>19900</v>
-      </c>
-      <c r="F9" s="15">
-        <v>20000</v>
-      </c>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" ht="20.65" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s" s="13">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s" s="13">
-        <v>14</v>
-      </c>
-      <c r="E10" s="16">
-        <v>16800</v>
-      </c>
-      <c r="F10" s="15">
-        <v>17500</v>
-      </c>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" ht="20.65" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" ht="20.65" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-    </row>
-    <row r="20" ht="20.65" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-    </row>
-    <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-    </row>
-    <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-    </row>
-    <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:V1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>

--- a/CostType.xlsx
+++ b/CostType.xlsx
@@ -12,24 +12,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Table 1</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Domestic:</t>
   </si>
   <si>
     <t>type</t>
   </si>
   <si>
-    <t>Caffeinated</t>
+    <t>brand</t>
   </si>
   <si>
-    <t>brand</t>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Caffeinated</t>
   </si>
   <si>
     <t>House Blend</t>
@@ -52,12 +52,6 @@
   <si>
     <t>Espresso</t>
   </si>
-  <si>
-    <t>Actual</t>
-  </si>
-  <si>
-    <t>Budget</t>
-  </si>
 </sst>
 </file>
 
@@ -67,7 +61,7 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -78,34 +72,16 @@
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
-    <font>
-      <b val="1"/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,106 +91,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -224,7 +110,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -234,40 +120,16 @@
     <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -287,10 +149,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1384,35 +1243,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V8"/>
+  <dimension ref="A2:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.35156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.35156" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.35156" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.35156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6719" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85156" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85156" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.35156" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.35156" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.35156" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.35156" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.35156" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.35156" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.35156" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.35156" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.35156" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.35156" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.35156" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.35156" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.35156" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.35156" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.35156" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.35156" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.35156" style="1" customWidth="1"/>
-    <col min="22" max="22" width="8.35156" style="1" customWidth="1"/>
-    <col min="23" max="256" width="8.35156" style="1" customWidth="1"/>
+    <col min="6" max="256" width="8.35156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1">
@@ -1423,275 +1265,130 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
     </row>
-    <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
+    <row r="2" ht="20.35" customHeight="1">
+      <c r="A2" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4"/>
     </row>
-    <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" t="s" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
+    <row r="3" ht="20.35" customHeight="1">
+      <c r="A3" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5">
+        <v>55200</v>
+      </c>
+      <c r="D3" s="5">
+        <v>55000</v>
+      </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s" s="10">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s" s="10">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s" s="10">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s" s="10">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s" s="10">
-        <v>4</v>
-      </c>
-      <c r="H4" t="s" s="10">
-        <v>4</v>
-      </c>
-      <c r="I4" t="s" s="10">
-        <v>4</v>
-      </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
+      <c r="A4" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6">
+        <v>46400</v>
+      </c>
+      <c r="D4" s="6">
+        <v>45000</v>
+      </c>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" t="s" s="9">
+      <c r="A5" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="C5" t="s" s="10">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s" s="10">
+      <c r="B5" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="F5" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
+      <c r="C5" s="6">
+        <v>35200</v>
+      </c>
+      <c r="D5" s="6">
+        <v>35000</v>
+      </c>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="C6" s="12">
-        <v>55200</v>
-      </c>
-      <c r="D6" s="13">
-        <v>46400</v>
-      </c>
-      <c r="E6" s="13">
-        <v>35200</v>
-      </c>
-      <c r="F6" s="13">
+      <c r="A6" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s" s="3">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6">
         <v>28700</v>
       </c>
-      <c r="G6" s="13">
-        <v>22100</v>
-      </c>
-      <c r="H6" s="13">
-        <v>19900</v>
-      </c>
-      <c r="I6" s="13">
-        <v>16800</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
+      <c r="D6" s="6">
+        <v>25000</v>
+      </c>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="C7" s="12">
-        <v>55000</v>
-      </c>
-      <c r="D7" s="13">
-        <v>45000</v>
-      </c>
-      <c r="E7" s="13">
-        <v>35000</v>
-      </c>
-      <c r="F7" s="13">
+      <c r="A7" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6">
+        <v>22100</v>
+      </c>
+      <c r="D7" s="6">
         <v>25000</v>
       </c>
-      <c r="G7" s="13">
-        <v>25000</v>
-      </c>
-      <c r="H7" s="13">
-        <v>20000</v>
-      </c>
-      <c r="I7" s="13">
-        <v>17500</v>
-      </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
+      <c r="A8" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="C8" s="6">
+        <v>19900</v>
+      </c>
+      <c r="D8" s="6">
+        <v>20000</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" ht="20.35" customHeight="1">
+      <c r="A9" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6">
+        <v>16800</v>
+      </c>
+      <c r="D9" s="6">
+        <v>17500</v>
+      </c>
+      <c r="E9" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/CostType.xlsx
+++ b/CostType.xlsx
@@ -57,11 +57,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -72,16 +71,34 @@
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
+    <font>
+      <b val="1"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -91,16 +108,106 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -110,7 +217,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -120,16 +227,34 @@
     <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -149,7 +274,10 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1249,7 +1377,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.6719" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.85156" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.85156" style="1" customWidth="1"/>
@@ -1266,7 +1394,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" ht="20.35" customHeight="1">
+    <row r="2" ht="20.55" customHeight="1">
       <c r="A2" t="s" s="3">
         <v>1</v>
       </c>
@@ -1281,110 +1409,110 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" ht="20.35" customHeight="1">
-      <c r="A3" t="s" s="3">
+    <row r="3" ht="20.55" customHeight="1">
+      <c r="A3" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="7">
         <v>55200</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="7">
         <v>55000</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" t="s" s="3">
+      <c r="A4" t="s" s="9">
         <v>5</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="B4" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="11">
         <v>46400</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="11">
         <v>45000</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" t="s" s="3">
+      <c r="A5" t="s" s="9">
         <v>5</v>
       </c>
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="10">
         <v>8</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="11">
         <v>35200</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="11">
         <v>35000</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" t="s" s="3">
+      <c r="A6" t="s" s="9">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="3">
+      <c r="B6" t="s" s="10">
         <v>9</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="11">
         <v>28700</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="11">
         <v>25000</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" t="s" s="3">
+      <c r="A7" t="s" s="9">
         <v>5</v>
       </c>
-      <c r="B7" t="s" s="3">
+      <c r="B7" t="s" s="10">
         <v>10</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="11">
         <v>22100</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="11">
         <v>25000</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" t="s" s="3">
+      <c r="A8" t="s" s="9">
         <v>5</v>
       </c>
-      <c r="B8" t="s" s="3">
+      <c r="B8" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="11">
         <v>19900</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="11">
         <v>20000</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" t="s" s="3">
+      <c r="A9" t="s" s="9">
         <v>5</v>
       </c>
-      <c r="B9" t="s" s="3">
+      <c r="B9" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="11">
         <v>16800</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="11">
         <v>17500</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
